--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3222.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3222.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.334148465601265</v>
+        <v>1.52749240398407</v>
       </c>
       <c r="B1">
-        <v>3.066649356070886</v>
+        <v>1.740251183509827</v>
       </c>
       <c r="C1">
-        <v>4.841137029132555</v>
+        <v>2.163393020629883</v>
       </c>
       <c r="D1">
-        <v>2.736248576037814</v>
+        <v>2.217680931091309</v>
       </c>
       <c r="E1">
-        <v>1.276674170107651</v>
+        <v>1.367837071418762</v>
       </c>
     </row>
   </sheetData>
